--- a/PAR_AddShared_IFC_Parameters.xlsx
+++ b/PAR_AddShared_IFC_Parameters.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DYNAMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\REVIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95131D7-F1E8-4EBE-9245-E47A6D51AD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663351E0-0C98-45E1-8102-E7B821F0C895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="906" firstSheet="1" activeTab="4" xr2:uid="{2BCF1375-059F-4054-BD28-A89D3B348B59}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="906" firstSheet="5" activeTab="19" xr2:uid="{2BCF1375-059F-4054-BD28-A89D3B348B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
     <sheet name="Parameters" sheetId="14" r:id="rId2"/>
-    <sheet name="IfcDoor" sheetId="32" r:id="rId3"/>
+    <sheet name="IfcDoor" sheetId="45" r:id="rId3"/>
     <sheet name="IfcWindow" sheetId="33" r:id="rId4"/>
     <sheet name="DoorWindowPsets" sheetId="34" r:id="rId5"/>
     <sheet name="IfcBeam" sheetId="18" r:id="rId6"/>
     <sheet name="IfcBuildingElementProxy" sheetId="29" r:id="rId7"/>
     <sheet name="IfcColumn" sheetId="19" r:id="rId8"/>
     <sheet name="IfcCovering" sheetId="20" r:id="rId9"/>
-    <sheet name="IfcMember" sheetId="37" r:id="rId10"/>
-    <sheet name="IfcPlate" sheetId="39" r:id="rId11"/>
-    <sheet name="IfcRailing" sheetId="27" r:id="rId12"/>
-    <sheet name="IfcRamp" sheetId="40" r:id="rId13"/>
-    <sheet name="IfcRampFlight" sheetId="42" r:id="rId14"/>
-    <sheet name="IfcRoof" sheetId="31" r:id="rId15"/>
-    <sheet name="IfcSlab" sheetId="30" r:id="rId16"/>
-    <sheet name="IfcStair" sheetId="28" r:id="rId17"/>
-    <sheet name="IfcStairFlight" sheetId="36" r:id="rId18"/>
-    <sheet name="IfcWall" sheetId="26" r:id="rId19"/>
+    <sheet name="IfcFurnitureType" sheetId="43" r:id="rId10"/>
+    <sheet name="IfcMember" sheetId="37" r:id="rId11"/>
+    <sheet name="IfcPlate" sheetId="39" r:id="rId12"/>
+    <sheet name="IfcRailing" sheetId="27" r:id="rId13"/>
+    <sheet name="IfcRamp" sheetId="40" r:id="rId14"/>
+    <sheet name="IfcRampFlight" sheetId="42" r:id="rId15"/>
+    <sheet name="IfcRoof" sheetId="31" r:id="rId16"/>
+    <sheet name="IfcSlab" sheetId="30" r:id="rId17"/>
+    <sheet name="IfcStair" sheetId="28" r:id="rId18"/>
+    <sheet name="IfcStairFlight" sheetId="36" r:id="rId19"/>
+    <sheet name="IfcTransportElement" sheetId="46" r:id="rId20"/>
+    <sheet name="IfcVirtualElement" sheetId="44" r:id="rId21"/>
+    <sheet name="IfcWall" sheetId="26" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="parameter">Parameters!$A$1</definedName>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="295">
   <si>
     <t>Types</t>
   </si>
@@ -585,9 +588,6 @@
     <t>IfcWindowStyleOperationEnum</t>
   </si>
   <si>
-    <t>SINGLE_PANEL,</t>
-  </si>
-  <si>
     <t>DOUBLE_PANEL_VERTICAL</t>
   </si>
   <si>
@@ -895,6 +895,54 @@
   </si>
   <si>
     <t>ClassificationCode(4)</t>
+  </si>
+  <si>
+    <t>SINGLE_PANEL</t>
+  </si>
+  <si>
+    <t>IfcName</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>NominalHeight</t>
+  </si>
+  <si>
+    <t>NominalLength</t>
+  </si>
+  <si>
+    <t>NominalDepth</t>
+  </si>
+  <si>
+    <t>MainColor</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>ELEVATOR</t>
+  </si>
+  <si>
+    <t>ESCALATOR</t>
+  </si>
+  <si>
+    <t>MOVINGWALKWAY</t>
+  </si>
+  <si>
+    <t>ClearWidth</t>
+  </si>
+  <si>
+    <t>ClearDepth</t>
+  </si>
+  <si>
+    <t>ClearHeight</t>
+  </si>
+  <si>
+    <t>CapacityPeople</t>
+  </si>
+  <si>
+    <t>CapacityWeight</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1035,6 +1083,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1578,6 +1627,282 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99875F1D-55A8-4C62-A034-BBFCBFB5B939}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C1" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D1" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E1">
+        <f>VLOOKUP(A1,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f>VLOOKUP(A1,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(A2,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP(A2,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>VLOOKUP(A3,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(A3,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(A3,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(A3,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(A4,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(A4,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP(A5,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,Parameters!A:G,3,FALSE)</f>
+        <v>Length</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(A5,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(A5,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(A5,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP(A6,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,Parameters!A:G,3,FALSE)</f>
+        <v>Length</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(A6,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(A6,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(A6,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>VLOOKUP(A7,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,Parameters!A:G,3,FALSE)</f>
+        <v>Length</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(A7,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(A7,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(A7,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>VLOOKUP(A8,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A8,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(A8,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(A8,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(A8,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>VLOOKUP(A12,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(A12,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(A12,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(A12,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(A12,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC19E35D-2FA1-4AE2-AD72-0081FCF510E3}">
+          <x14:formula1>
+            <xm:f>Parameters!$A$2:$A$1000</xm:f>
+          </x14:formula1>
+          <xm:sqref>A12 A1:A8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3CEFD6-F21D-44C7-A0E8-7664694819E1}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -1769,7 +2094,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1783,80 +2108,80 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1917,7 +2242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E6D57A-9154-438B-A32C-AF692FB84624}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -2108,7 +2433,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2122,12 +2447,12 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2188,12 +2513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B278ADF8-F0F3-4AE0-B6C5-BF4A31980897}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C19" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2254,7 +2579,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>VLOOKUP(A3,Parameters!A:G,2,FALSE)</f>
@@ -2262,7 +2587,7 @@
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(A3,Parameters!A:G,3,FALSE)</f>
-        <v>YesNo</v>
+        <v>Length</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(A3,Parameters!A:G,5,FALSE)</f>
@@ -2270,7 +2595,7 @@
       </c>
       <c r="E3" s="10">
         <f>VLOOKUP(A3,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="10">
         <f>VLOOKUP(A3,Parameters!A:G,7,FALSE)</f>
@@ -2278,85 +2603,110 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,3,FALSE)</f>
+        <v>YesNo</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E4" s="10">
+        <f>VLOOKUP(A4,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <f>VLOOKUP(A4,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>142</v>
+      <c r="A5" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>229</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f>VLOOKUP(A10,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(A10,Parameters!A:G,3,FALSE)</f>
+      <c r="B11" s="2" t="str">
+        <f>VLOOKUP(A11,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A11,Parameters!A:G,3,FALSE)</f>
         <v>Text</v>
       </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(A10,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E10" s="11">
-        <f>VLOOKUP(A10,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <f>VLOOKUP(A10,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="D11" t="str">
+        <f>VLOOKUP(A11,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E11" s="11">
+        <f>VLOOKUP(A11,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f>VLOOKUP(A11,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22929E99-C703-4BC8-9DCE-78150E5B8461}">
           <x14:formula1>
             <xm:f>Parameters!$A$2:$A$1000</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A3 A10</xm:sqref>
+          <xm:sqref>A11 A1:A4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2364,7 +2714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FB973D-4FCA-42E5-BE83-4BC89A19FC96}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -2605,7 +2955,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2619,42 +2969,42 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -2717,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF2751B-08BC-4F62-9FBE-8B3E56410B43}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2833,7 +3183,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -2847,14 +3197,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2917,7 +3267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1085BF-74B0-40D7-81D4-2ECADBA20CB2}">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -3083,7 +3433,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3097,91 +3447,91 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -3212,7 +3562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C8B0B1-12A5-4A3B-9C5B-A43160A820FD}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -3503,7 +3853,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>VLOOKUP(A12,Parameters!A:G,2,FALSE)</f>
@@ -3528,7 +3878,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3542,22 +3892,22 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3618,7 +3968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ECAB0F-6BB3-4844-B6B2-8894E98AB70B}">
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -3930,7 +4280,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>VLOOKUP(A13,Parameters!A:G,2,FALSE)</f>
@@ -3955,7 +4305,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="8"/>
     </row>
@@ -3967,85 +4317,85 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="8"/>
     </row>
@@ -4106,12 +4456,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0821A03-1190-4F41-AF4B-84F2273AD1D0}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4547,7 +4897,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>VLOOKUP(A18,Parameters!A:G,2,FALSE)</f>
@@ -4572,7 +4922,7 @@
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="8"/>
     </row>
@@ -4584,31 +4934,31 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" s="8"/>
     </row>
@@ -4666,385 +5016,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5626368-0E6E-4ADE-9FE8-11068B0E1D17}">
-  <dimension ref="A1:F20"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAB3095-5BCA-45DE-B635-33ACB127842F}">
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="2" t="str">
-        <f>VLOOKUP(A1,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C1" t="str">
-        <f>VLOOKUP(A1,Parameters!A:G,3,FALSE)</f>
-        <v>Text</v>
-      </c>
-      <c r="D1" t="str">
-        <f>VLOOKUP(A1,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E1" s="10">
-        <f>VLOOKUP(A1,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="10">
-        <f>VLOOKUP(A1,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>VLOOKUP(A2,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(A2,Parameters!A:G,3,FALSE)</f>
-        <v>Text</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(A2,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E2" s="10">
-        <f>VLOOKUP(A2,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <f>VLOOKUP(A2,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>VLOOKUP(A3,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(A3,Parameters!A:G,3,FALSE)</f>
-        <v>Text</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(A3,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E3" s="10">
-        <f>VLOOKUP(A3,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <f>VLOOKUP(A3,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>VLOOKUP(A4,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(A4,Parameters!A:G,3,FALSE)</f>
-        <v>Text</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(A4,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E4" s="10">
-        <f>VLOOKUP(A4,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <f>VLOOKUP(A4,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>VLOOKUP(A5,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(A5,Parameters!A:G,3,FALSE)</f>
-        <v>YesNo</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(A5,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E5" s="10">
-        <f>VLOOKUP(A5,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <f>VLOOKUP(A5,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>VLOOKUP(A6,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(A6,Parameters!A:G,3,FALSE)</f>
-        <v>Text</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(A6,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E6" s="10">
-        <f>VLOOKUP(A6,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <f>VLOOKUP(A6,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>VLOOKUP(A7,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(A7,Parameters!A:G,3,FALSE)</f>
-        <v>Number</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(A7,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E7" s="10">
-        <f>VLOOKUP(A7,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <f>VLOOKUP(A7,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>VLOOKUP(A8,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(A8,Parameters!A:G,3,FALSE)</f>
-        <v>YesNo</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(A8,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E8" s="10">
-        <f>VLOOKUP(A8,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <f>VLOOKUP(A8,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>VLOOKUP(A9,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(A9,Parameters!A:G,3,FALSE)</f>
-        <v>YesNo</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(A9,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E9" s="10">
-        <f>VLOOKUP(A9,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
-        <f>VLOOKUP(A9,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>VLOOKUP(A10,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(A10,Parameters!A:G,3,FALSE)</f>
-        <v>YesNo</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(A10,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E10" s="10">
-        <f>VLOOKUP(A10,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <f>VLOOKUP(A10,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>276</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>VLOOKUP(A19,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C19" t="str">
-        <f>VLOOKUP(A19,Parameters!A:G,3,FALSE)</f>
-        <v>Text</v>
-      </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(A19,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E19" s="11">
-        <f>VLOOKUP(A19,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <f>VLOOKUP(A19,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BA84A28-B737-4CFE-A82C-3D349BAC337F}">
-          <x14:formula1>
-            <xm:f>Parameters!$A$2:$A$1000</xm:f>
-          </x14:formula1>
-          <xm:sqref>A19 A1:A10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAB3095-5BCA-45DE-B635-33ACB127842F}">
-  <dimension ref="A1:G85"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5312,7 +5290,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="F11" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -5552,7 +5530,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="F21" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -5576,7 +5554,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="F22" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -5600,7 +5578,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="F23" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -5624,7 +5602,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="F24" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -5648,7 +5626,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="F25" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -5936,7 +5914,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="F37" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -5984,7 +5962,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="F39" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -6008,7 +5986,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="F40" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -6032,7 +6010,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="F41" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -7072,7 +7050,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>8</v>
@@ -7091,6 +7069,294 @@
         <v>1</v>
       </c>
       <c r="G85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <f>VLOOKUP(D86,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F86" s="22">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f>VLOOKUP(D87,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F87" s="22">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <f>VLOOKUP(D88,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F88" s="22">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="4" t="str">
+        <f>VLOOKUP(D89,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F89" s="22">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f>VLOOKUP(D90,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F90" s="22">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f>VLOOKUP(D91,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F91" s="22">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f>VLOOKUP(D92,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F92" s="22">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="4" t="str">
+        <f>VLOOKUP(D93,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F93" s="22">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <f>VLOOKUP(D94,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F94" s="22">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f>VLOOKUP(D95,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F95" s="22">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <f>VLOOKUP(D96,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="4" t="str">
+        <f>VLOOKUP(D97,Variables!$B$3:$C$17,2,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
         <v>0</v>
       </c>
     </row>
@@ -7129,12 +7395,853 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC07B33-676B-45EC-8442-479B7A176A11}">
-  <dimension ref="A1:F52"/>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD465CF-0293-4DB0-BB69-C64155F26647}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C1" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D1" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E1">
+        <f>VLOOKUP(A1,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f>VLOOKUP(A1,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(A2,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP(A2,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>VLOOKUP(A3,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,Parameters!A:G,3,FALSE)</f>
+        <v>YesNo</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(A3,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(A3,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(A3,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,3,FALSE)</f>
+        <v>Integer</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(A4,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(A4,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP(A5,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,Parameters!A:G,3,FALSE)</f>
+        <v>Number</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(A5,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(A5,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(A5,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>VLOOKUP(A9,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,Parameters!A:G,3,FALSE)</f>
+        <v>Length</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(A9,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(A9,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(A9,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>VLOOKUP(A10,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,Parameters!A:G,3,FALSE)</f>
+        <v>Length</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(A10,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(A10,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(A10,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>VLOOKUP(A11,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A11,Parameters!A:G,3,FALSE)</f>
+        <v>Length</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(A11,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(A11,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(A11,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>VLOOKUP(A15,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(A15,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(A15,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(A15,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(A15,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{535E561E-B89E-4828-8ED3-DE94EACFA49D}">
+          <x14:formula1>
+            <xm:f>Parameters!$A$2:$A$1000</xm:f>
+          </x14:formula1>
+          <xm:sqref>A15 A1:A5 A9:A11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAA73D5-B97E-4C32-B151-9B59271F0DC2}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C1" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D1" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E1">
+        <f>VLOOKUP(A1,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f>VLOOKUP(A1,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(A2,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP(A2,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP(A6,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(A6,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(A6,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(A6,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>VLOOKUP(A7,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(A7,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(A7,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(A7,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDEBD374-9B5F-465C-9AAF-3B875A7BF83B}">
+          <x14:formula1>
+            <xm:f>Parameters!$A$2:$A$1000</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A2 A6:A7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5626368-0E6E-4ADE-9FE8-11068B0E1D17}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C1" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D1" t="str">
+        <f>VLOOKUP(A1,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E1" s="10">
+        <f>VLOOKUP(A1,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="10">
+        <f>VLOOKUP(A1,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(A2,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E2" s="10">
+        <f>VLOOKUP(A2,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <f>VLOOKUP(A2,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>VLOOKUP(A3,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(A3,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E3" s="10">
+        <f>VLOOKUP(A3,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <f>VLOOKUP(A3,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(A4,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E4" s="10">
+        <f>VLOOKUP(A4,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <f>VLOOKUP(A4,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP(A5,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,Parameters!A:G,3,FALSE)</f>
+        <v>YesNo</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(A5,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E5" s="10">
+        <f>VLOOKUP(A5,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <f>VLOOKUP(A5,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP(A6,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(A6,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E6" s="10">
+        <f>VLOOKUP(A6,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <f>VLOOKUP(A6,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>VLOOKUP(A7,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,Parameters!A:G,3,FALSE)</f>
+        <v>Number</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(A7,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E7" s="10">
+        <f>VLOOKUP(A7,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <f>VLOOKUP(A7,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>VLOOKUP(A8,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A8,Parameters!A:G,3,FALSE)</f>
+        <v>YesNo</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(A8,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E8" s="10">
+        <f>VLOOKUP(A8,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <f>VLOOKUP(A8,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>VLOOKUP(A9,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,Parameters!A:G,3,FALSE)</f>
+        <v>YesNo</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(A9,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E9" s="10">
+        <f>VLOOKUP(A9,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <f>VLOOKUP(A9,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>VLOOKUP(A10,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,Parameters!A:G,3,FALSE)</f>
+        <v>YesNo</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(A10,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E10" s="10">
+        <f>VLOOKUP(A10,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <f>VLOOKUP(A10,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>VLOOKUP(A11,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A11,Parameters!A:G,3,FALSE)</f>
+        <v>YesNo</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(A11,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E11" s="10">
+        <f>VLOOKUP(A11,Parameters!A:G,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <f>VLOOKUP(A11,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>275</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>VLOOKUP(A20,Parameters!A:G,2,FALSE)</f>
+        <v>IFC Properties</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(A20,Parameters!A:G,3,FALSE)</f>
+        <v>Text</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(A20,Parameters!A:G,5,FALSE)</f>
+        <v>PG_IFC</v>
+      </c>
+      <c r="E20" s="11">
+        <f>VLOOKUP(A20,Parameters!A:G,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <f>VLOOKUP(A20,Parameters!A:G,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BA84A28-B737-4CFE-A82C-3D349BAC337F}">
+          <x14:formula1>
+            <xm:f>Parameters!$A$2:$A$1000</xm:f>
+          </x14:formula1>
+          <xm:sqref>A20 A1:A11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4270EDDC-B611-43AD-9E25-7A1CF0EC4E81}">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7160,8 +8267,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="E1">
-        <f>VLOOKUP(A1,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
         <f>VLOOKUP(A1,Parameters!A:G,7,FALSE)</f>
@@ -7185,8 +8291,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(A2,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>VLOOKUP(A2,Parameters!A:G,7,FALSE)</f>
@@ -7210,7 +8315,6 @@
         <v>PG_IFC</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(A3,Parameters!A:G,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -7235,8 +8339,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(A4,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(A4,Parameters!A:G,7,FALSE)</f>
@@ -7245,7 +8348,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>VLOOKUP(A5,Parameters!A:G,2,FALSE)</f>
@@ -7268,9 +8371,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>VLOOKUP(A6,Parameters!A:G,2,FALSE)</f>
@@ -7278,15 +8381,14 @@
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(A6,Parameters!A:G,3,FALSE)</f>
-        <v>Number</v>
+        <v>YesNo</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(A6,Parameters!A:G,5,FALSE)</f>
         <v>PG_IFC</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(A6,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(A6,Parameters!A:G,7,FALSE)</f>
@@ -7295,7 +8397,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>VLOOKUP(A7,Parameters!A:G,2,FALSE)</f>
@@ -7303,24 +8405,23 @@
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(A7,Parameters!A:G,3,FALSE)</f>
-        <v>Number</v>
+        <v>YesNo</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(A7,Parameters!A:G,5,FALSE)</f>
         <v>PG_IFC</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP(A7,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(A7,Parameters!A:G,7,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>VLOOKUP(A8,Parameters!A:G,2,FALSE)</f>
@@ -7335,8 +8436,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(A8,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>VLOOKUP(A8,Parameters!A:G,7,FALSE)</f>
@@ -7345,7 +8445,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>VLOOKUP(A9,Parameters!A:G,2,FALSE)</f>
@@ -7360,8 +8460,7 @@
         <v>PG_IFC</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(A9,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f>VLOOKUP(A9,Parameters!A:G,7,FALSE)</f>
@@ -7369,277 +8468,202 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>VLOOKUP(A10,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(A10,Parameters!A:G,3,FALSE)</f>
-        <v>YesNo</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(A10,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E10">
-        <f>VLOOKUP(A10,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>VLOOKUP(A10,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
+      <c r="A10" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>VLOOKUP(A11,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(A11,Parameters!A:G,3,FALSE)</f>
-        <v>YesNo</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(A11,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IFC</v>
-      </c>
-      <c r="E11">
-        <f>VLOOKUP(A11,Parameters!A:G,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>VLOOKUP(A11,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
+      <c r="A11" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>VLOOKUP(A12,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(A12,Parameters!A:G,3,FALSE)</f>
-        <v>Text</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(A12,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IDENTITY_DATA</v>
-      </c>
-      <c r="E12">
-        <f>VLOOKUP(A12,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f>VLOOKUP(A12,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
+      <c r="A12" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>141</v>
+      <c r="A13" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>142</v>
+      <c r="A14" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>147</v>
+      <c r="A19" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>148</v>
+      <c r="A20" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>149</v>
+      <c r="A21" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>150</v>
+      <c r="A22" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>151</v>
+      <c r="A23" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>278</v>
+      <c r="A24" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>165</v>
+      <c r="A39" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>166</v>
+      <c r="A40" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
-        <v>167</v>
+      <c r="A41" s="17" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>150</v>
+      <c r="A42" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>151</v>
+      <c r="A43" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
-        <v>168</v>
+      <c r="A44" s="15" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>172</v>
+      <c r="A48" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="A49" s="8" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7648,12 +8672,12 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84224EFC-BB3D-4935-8935-5716349CAB85}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FED3C15-AA7E-4B28-A82D-5E6E6AB5789A}">
           <x14:formula1>
             <xm:f>Parameters!$A$2:$A$1000</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A12</xm:sqref>
+          <xm:sqref>A1:A9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7663,10 +8687,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FF20B4-71BA-44D6-8FD6-6EF173C5FDB1}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7876,93 +8900,73 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>VLOOKUP(A9,Parameters!A:G,2,FALSE)</f>
-        <v>IFC Properties</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(A9,Parameters!A:G,3,FALSE)</f>
-        <v>Text</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(A9,Parameters!A:G,5,FALSE)</f>
-        <v>PG_IDENTITY_DATA</v>
-      </c>
-      <c r="E9">
-        <f>VLOOKUP(A9,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f>VLOOKUP(A9,Parameters!A:G,7,FALSE)</f>
-        <v>0</v>
+      <c r="A9" s="19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>173</v>
+      <c r="A10" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>142</v>
+      <c r="A11" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>149</v>
+      <c r="A18" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>174</v>
+      <c r="A19" s="14" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>151</v>
+      <c r="A20" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>175</v>
+      <c r="A21" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -8007,21 +9011,21 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>151</v>
+      <c r="A33" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="14" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8087,11 +9091,6 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8105,7 +9104,7 @@
           <x14:formula1>
             <xm:f>Parameters!$A$2:$A$1000</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A9</xm:sqref>
+          <xm:sqref>A1:A8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8117,8 +9116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B8FDF3-373E-414D-B2FD-BA5F173BA2B6}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8130,7 +9129,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8151,7 +9150,7 @@
       </c>
       <c r="E2" s="8">
         <f>VLOOKUP(A2,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="8">
         <f>VLOOKUP(A2,Parameters!A:G,7,FALSE)</f>
@@ -8176,7 +9175,7 @@
       </c>
       <c r="E3" s="8">
         <f>VLOOKUP(A3,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
         <f>VLOOKUP(A3,Parameters!A:G,7,FALSE)</f>
@@ -8201,7 +9200,7 @@
       </c>
       <c r="E4" s="8">
         <f>VLOOKUP(A4,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
         <f>VLOOKUP(A4,Parameters!A:G,7,FALSE)</f>
@@ -8226,7 +9225,7 @@
       </c>
       <c r="E5" s="8">
         <f>VLOOKUP(A5,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
         <f>VLOOKUP(A5,Parameters!A:G,7,FALSE)</f>
@@ -8251,7 +9250,7 @@
       </c>
       <c r="E6" s="8">
         <f>VLOOKUP(A6,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
         <f>VLOOKUP(A6,Parameters!A:G,7,FALSE)</f>
@@ -8276,7 +9275,7 @@
       </c>
       <c r="E7" s="8">
         <f>VLOOKUP(A7,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8">
         <f>VLOOKUP(A7,Parameters!A:G,7,FALSE)</f>
@@ -8301,7 +9300,7 @@
       </c>
       <c r="E8" s="8">
         <f>VLOOKUP(A8,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
         <f>VLOOKUP(A8,Parameters!A:G,7,FALSE)</f>
@@ -8326,7 +9325,7 @@
       </c>
       <c r="E9" s="8">
         <f>VLOOKUP(A9,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8">
         <f>VLOOKUP(A9,Parameters!A:G,7,FALSE)</f>
@@ -8351,7 +9350,7 @@
       </c>
       <c r="E10" s="8">
         <f>VLOOKUP(A10,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8">
         <f>VLOOKUP(A10,Parameters!A:G,7,FALSE)</f>
@@ -8376,7 +9375,7 @@
       </c>
       <c r="E11" s="8">
         <f>VLOOKUP(A11,Parameters!A:G,6,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="8">
         <f>VLOOKUP(A11,Parameters!A:G,7,FALSE)</f>
@@ -8535,7 +9534,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="16"/>
     </row>
@@ -8616,7 +9615,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -8871,7 +9870,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -8926,7 +9925,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -9131,7 +10130,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -9393,7 +10392,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9403,22 +10402,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -9539,7 +10538,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9765,7 +10764,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -9777,7 +10776,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -10103,7 +11102,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10113,7 +11112,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -10193,12 +11192,12 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10253,7 +11252,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -10423,18 +11422,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10454,18 +11453,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA44550-CE94-4249-BB24-80829B497D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E610D42B-58C1-4137-B757-DC3B93402CC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA44550-CE94-4249-BB24-80829B497D61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>